--- a/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 0,97</t>
+          <t>-36,44; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,81</t>
+          <t>-3,22; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,26</t>
+          <t>-15,18; 1,22</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-3,38%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 0,97</t>
+          <t>-37,5; 0,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,81</t>
+          <t>-3,26; 5,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 0,24</t>
+          <t>-15,7; 1,23</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,9</t>
+          <t>-1,63; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,71</t>
+          <t>-1,67; 0,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,4</t>
+          <t>-1,27; 1,42</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,01%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,96</t>
+          <t>-1,65; 3,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,77</t>
+          <t>-1,67; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,44</t>
+          <t>-1,29; 1,46</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,92</t>
+          <t>-3,42; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,43</t>
+          <t>-3,44; 2,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,55</t>
+          <t>-2,27; 2,08</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,03</t>
+          <t>-3,47; 3,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,47</t>
+          <t>-3,49; 2,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,59</t>
+          <t>-2,33; 2,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,96</t>
+          <t>-1,24; 2,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,71</t>
+          <t>-2,89; 1,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,52</t>
+          <t>-1,42; 1,18</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,99</t>
+          <t>-1,25; 2,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,73</t>
+          <t>-2,95; 1,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,54</t>
+          <t>-1,45; 1,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 0,96</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 0,86</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 0,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 1,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 0,88</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 0,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.084537714954575</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8266622144105895</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.708130861177438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; 0,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 5,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 1,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.88664270204705</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.222810463779604</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.68575471396347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,38%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.4543300729114308</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.214395452174127</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.284452546871408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-37,5; 0,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 5,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 1,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.07212665574624837</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.008608569694503413</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02790548499505363</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.327486361284872</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.03302886867775794</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1301648728021848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 3,26</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 1,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.004769429369691853</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.0562537660714077</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.01315026845701272</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.06341438092249962</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3947613823493734</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2483585368807772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 3,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 1,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.911473268474601</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.649473992768271</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.89027768075076</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.592958926768743</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9247019766458914</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.216914970056443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 3,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 2,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 2,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.0006512188536757668</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.003970478979020265</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.002522708261894176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.02957877378266835</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.01660000196051096</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01911770127082297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 3,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 2,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 2,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.0270636279405644</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.009344032887927043</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01241084278042497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.5517179549313078</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.199996811094972</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.3503045242157832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 2,16</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 1,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 1,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.84293310437593</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.21847013726555</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.696815864412453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,79%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.77471318311563</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.013716856933105</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.905348732674977</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 2,25</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 1,11</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 1,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.00570056600863132</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01237954728962783</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.003616449092401166</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.02906600825671939</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.05354106823635264</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.02755361523272161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 0,96</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 0,86</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 0,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.03940395377015938</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.02111548403355788</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.01998998415880986</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.005119625414619</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.4929883220264664</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.7423493485858357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 1,0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,88</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.492996373552741</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.118845503705308</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.983603106167905</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.063734823461726</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.060753101018557</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4161194577592324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01032816971299223</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.00503269196738042</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.007601563834161979</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.04569652985500043</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.02163796504474323</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.030464365293008</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.01109615218451627</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01093333878201385</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.004279289624607355</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
